--- a/experiment_results/20201127_AGGREGATION_MEDIAN_NORMALIZATION1/Email/4wise/0.95_.xlsx
+++ b/experiment_results/20201127_AGGREGATION_MEDIAN_NORMALIZATION1/Email/4wise/0.95_.xlsx
@@ -468,19 +468,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>135</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G2">
         <v>247</v>
@@ -544,19 +544,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>139</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4">
         <v>247</v>
@@ -1534,19 +1534,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>139</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>247</v>
@@ -1661,10 +1661,10 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>117</v>
@@ -1699,7 +1699,7 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -1708,7 +1708,7 @@
         <v>139</v>
       </c>
       <c r="E4">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F4">
         <v>12</v>
@@ -3514,19 +3514,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>139</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>247</v>
@@ -4174,19 +4174,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>139</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>247</v>
@@ -4428,19 +4428,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>135</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G2">
         <v>247</v>
@@ -4504,19 +4504,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>139</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4">
         <v>247</v>
@@ -4796,10 +4796,10 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>117</v>
@@ -4834,7 +4834,7 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -4843,7 +4843,7 @@
         <v>139</v>
       </c>
       <c r="E4">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F4">
         <v>12</v>
@@ -5329,19 +5329,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>139</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>247</v>
